--- a/tests/tests_data/cnae_labor_productivity_exposure.xlsx
+++ b/tests/tests_data/cnae_labor_productivity_exposure.xlsx
@@ -360,17 +360,17 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CNAE</t>
+          <t>cnae</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>LP_Exposure</t>
+          <t>lp_exposure</t>
         </is>
       </c>
     </row>
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -445,7 +445,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>median</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>low</t>
         </is>
       </c>
     </row>
